--- a/test_data/期初导入数据/固定资产.xlsx
+++ b/test_data/期初导入数据/固定资产.xlsx
@@ -157,13 +157,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +201,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,30 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,47 +291,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,11 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -349,17 +343,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -389,7 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +407,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +461,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,115 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +618,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -642,8 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,15 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,21 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,165 +713,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,7 +924,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1303,7 +1291,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -1366,7 +1354,7 @@
         <v>312</v>
       </c>
       <c r="H2" s="16">
-        <v>42370</v>
+        <v>40179</v>
       </c>
       <c r="I2" s="20"/>
     </row>
@@ -1388,7 +1376,7 @@
         <v>4000</v>
       </c>
       <c r="H3" s="16">
-        <v>42706</v>
+        <v>39784</v>
       </c>
       <c r="I3" s="20"/>
     </row>
@@ -1410,7 +1398,7 @@
         <v>30000</v>
       </c>
       <c r="H4" s="16">
-        <v>42372</v>
+        <v>38720</v>
       </c>
       <c r="I4" s="20"/>
     </row>
@@ -1432,7 +1420,7 @@
         <v>15000</v>
       </c>
       <c r="H5" s="16">
-        <v>42373</v>
+        <v>35799</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -1454,7 +1442,7 @@
         <v>35000</v>
       </c>
       <c r="H6" s="16">
-        <v>42374</v>
+        <v>36530</v>
       </c>
       <c r="I6" s="20"/>
     </row>
